--- a/Codes/dict_compose_poisson_Cl2_proba23.xlsx
+++ b/Codes/dict_compose_poisson_Cl2_proba23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C2" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C4" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C5" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C6" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C7" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.031</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C8" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C9" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.057</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C10" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.048</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C11" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C12" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>0.036</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C13" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C14" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C15" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="16">
@@ -698,10 +698,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C16" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C17" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C18" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C19" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>0.029</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C20" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C21" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C22" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>0.026</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="23">
@@ -817,10 +817,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C23" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D23" t="n">
         <v>22</v>
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C24" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C25" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C26" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C27" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C28" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C29" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C30" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C31" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32">
@@ -970,10 +970,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C32" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D32" t="n">
         <v>31</v>
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C33" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C34" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="35">
@@ -1021,10 +1021,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C35" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D35" t="n">
         <v>34</v>
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C36" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C37" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C38" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C39" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C40" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>0.006</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C41" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="42">
@@ -1140,10 +1140,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C42" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D42" t="n">
         <v>41</v>
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C43" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C44" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C45" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C46" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D46" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C47" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D47" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="48">
@@ -1242,13 +1242,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C48" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D48" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E48" t="n">
         <v>0.001</v>
@@ -1259,13 +1259,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C49" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D49" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E49" t="n">
         <v>0.001</v>
@@ -1276,13 +1276,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C50" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D50" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E50" t="n">
         <v>0.001</v>
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C51" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D51" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E51" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="52">
@@ -1310,117 +1310,15 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C52" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D52" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>58</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>60</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D55" t="n">
-        <v>63</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>64</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>71</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>80</v>
-      </c>
-      <c r="E58" t="n">
         <v>0.001</v>
       </c>
     </row>
